--- a/teaching/traditional_assets/database/data/china/china_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/china/china_insurance_prop_cas.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1049</v>
+        <v>0.09285</v>
       </c>
       <c r="E2">
-        <v>0.1705</v>
+        <v>-0.00482</v>
       </c>
       <c r="G2">
-        <v>0.0468353192490702</v>
+        <v>0.04573442664215203</v>
       </c>
       <c r="H2">
-        <v>0.0468353192490702</v>
+        <v>0.04573442664215203</v>
       </c>
       <c r="I2">
-        <v>0.04218786737710169</v>
+        <v>0.04719887495348787</v>
       </c>
       <c r="J2">
-        <v>0.04069374413527206</v>
+        <v>0.0427370295678003</v>
       </c>
       <c r="K2">
-        <v>5470.400000000001</v>
+        <v>5785.47</v>
       </c>
       <c r="L2">
-        <v>0.04179438361229873</v>
+        <v>0.03957273130212096</v>
       </c>
       <c r="M2">
-        <v>781.5999999999999</v>
+        <v>1766.3</v>
       </c>
       <c r="N2">
-        <v>0.01547345893970379</v>
+        <v>0.0468093677038419</v>
       </c>
       <c r="O2">
-        <v>0.1428780345130155</v>
+        <v>0.3052993101684046</v>
       </c>
       <c r="P2">
-        <v>736.5</v>
+        <v>1766.3</v>
       </c>
       <c r="Q2">
-        <v>0.01458060709965691</v>
+        <v>0.0468093677038419</v>
       </c>
       <c r="R2">
-        <v>0.1346336648142732</v>
+        <v>0.3052993101684046</v>
       </c>
       <c r="S2">
-        <v>45.1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.05770214943705221</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>10537</v>
+        <v>6473</v>
       </c>
       <c r="V2">
-        <v>0.2086026571745891</v>
+        <v>0.1715433602145551</v>
       </c>
       <c r="W2">
-        <v>0.1216206372187469</v>
+        <v>0.1143658113123397</v>
       </c>
       <c r="X2">
-        <v>0.05312309442650465</v>
+        <v>0.05519309560603548</v>
       </c>
       <c r="Y2">
-        <v>0.06849754279224222</v>
+        <v>0.05917271570630422</v>
       </c>
       <c r="Z2">
-        <v>2.10490632394167</v>
+        <v>2.35536354854256</v>
       </c>
       <c r="AA2">
-        <v>0.08394442445885049</v>
+        <v>0.09923704789451185</v>
       </c>
       <c r="AB2">
-        <v>0.04937246439352655</v>
+        <v>0.04521761260002925</v>
       </c>
       <c r="AC2">
-        <v>0.03347679162180248</v>
+        <v>0.05431088886016441</v>
       </c>
       <c r="AD2">
-        <v>22076.8</v>
+        <v>28478.8</v>
       </c>
       <c r="AE2">
-        <v>641.4876979948114</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>22718.28769799481</v>
+        <v>28478.8</v>
       </c>
       <c r="AG2">
-        <v>12181.28769799481</v>
+        <v>22005.8</v>
       </c>
       <c r="AH2">
-        <v>0.3102294875972555</v>
+        <v>0.4301108397633687</v>
       </c>
       <c r="AI2">
-        <v>0.2768915983443354</v>
+        <v>0.302030306115523</v>
       </c>
       <c r="AJ2">
-        <v>0.1942987815065562</v>
+        <v>0.3683614079079741</v>
       </c>
       <c r="AK2">
-        <v>0.1703424358563394</v>
+        <v>0.2505835920116787</v>
       </c>
       <c r="AL2">
-        <v>1197.1</v>
+        <v>1150.7</v>
       </c>
       <c r="AM2">
-        <v>1197.1</v>
+        <v>1150.7</v>
       </c>
       <c r="AN2">
-        <v>3.536135315222963</v>
+        <v>3.788182713027748</v>
       </c>
       <c r="AO2">
-        <v>4.578815470720909</v>
+        <v>5.996697662292518</v>
       </c>
       <c r="AP2">
-        <v>1.951128859878718</v>
+        <v>2.927159541355184</v>
       </c>
       <c r="AQ2">
-        <v>4.578815470720909</v>
+        <v>5.996697662292518</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PICC Property and Casualty Company Limited (SEHK:2328)</t>
+          <t>The People's Insurance Company (Group) of China Limited (SEHK:1339)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.126</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="E3">
-        <v>0.135</v>
+        <v>0.0007599999999999999</v>
       </c>
       <c r="G3">
-        <v>0.05744886941351</v>
+        <v>0.04117666316678086</v>
       </c>
       <c r="H3">
-        <v>0.05744886941351</v>
+        <v>0.04117666316678086</v>
       </c>
       <c r="I3">
-        <v>0.04932309466917102</v>
+        <v>0.04590969359240283</v>
       </c>
       <c r="J3">
-        <v>0.04586278153314762</v>
+        <v>0.04001968203514555</v>
       </c>
       <c r="K3">
-        <v>2943.8</v>
+        <v>2872</v>
       </c>
       <c r="L3">
-        <v>0.05452077171394653</v>
+        <v>0.03358019610273295</v>
       </c>
       <c r="M3">
-        <v>729.8</v>
+        <v>909.9</v>
       </c>
       <c r="N3">
-        <v>0.02721692237694952</v>
+        <v>0.0648469515019777</v>
       </c>
       <c r="O3">
-        <v>0.2479108635097493</v>
+        <v>0.3168175487465181</v>
       </c>
       <c r="P3">
-        <v>729.8</v>
+        <v>909.9</v>
       </c>
       <c r="Q3">
-        <v>0.02721692237694952</v>
+        <v>0.0648469515019777</v>
       </c>
       <c r="R3">
-        <v>0.2479108635097493</v>
+        <v>0.3168175487465181</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2604.5</v>
+        <v>3559.5</v>
       </c>
       <c r="V3">
-        <v>0.09713137069164846</v>
+        <v>0.2536792217510601</v>
       </c>
       <c r="W3">
-        <v>0.1411461230126005</v>
+        <v>0.1143658113123397</v>
       </c>
       <c r="X3">
-        <v>0.05312309442650465</v>
+        <v>0.08444077660069747</v>
       </c>
       <c r="Y3">
-        <v>0.08802302858609581</v>
+        <v>0.02992503471164223</v>
       </c>
       <c r="Z3">
-        <v>2.122858573228386</v>
+        <v>2.509929479711111</v>
       </c>
       <c r="AA3">
-        <v>0.09736019896974291</v>
+        <v>0.100446579708677</v>
       </c>
       <c r="AB3">
-        <v>0.04937246439352655</v>
+        <v>0.04521761260002925</v>
       </c>
       <c r="AC3">
-        <v>0.04798773457621636</v>
+        <v>0.05522896710864773</v>
       </c>
       <c r="AD3">
-        <v>5002.5</v>
+        <v>21043.3</v>
       </c>
       <c r="AE3">
-        <v>205.7194706165633</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>5208.219470616563</v>
+        <v>21043.3</v>
       </c>
       <c r="AG3">
-        <v>2603.719470616563</v>
+        <v>17483.8</v>
       </c>
       <c r="AH3">
-        <v>0.1626429094589673</v>
+        <v>0.5999549534138469</v>
       </c>
       <c r="AI3">
-        <v>0.1836581974412418</v>
+        <v>0.3494961003414693</v>
       </c>
       <c r="AJ3">
-        <v>0.08850794065220112</v>
+        <v>0.5547718092482065</v>
       </c>
       <c r="AK3">
-        <v>0.1011007157077738</v>
+        <v>0.3086235170138515</v>
       </c>
       <c r="AL3">
-        <v>280.3</v>
+        <v>990.5</v>
       </c>
       <c r="AM3">
-        <v>280.3</v>
+        <v>990.5</v>
       </c>
       <c r="AN3">
-        <v>1.68650124738723</v>
+        <v>4.920222591129089</v>
       </c>
       <c r="AO3">
-        <v>9.45808062789868</v>
+        <v>3.964159515396264</v>
       </c>
       <c r="AP3">
-        <v>0.8777963288438281</v>
+        <v>4.087960906263883</v>
       </c>
       <c r="AQ3">
-        <v>9.45808062789868</v>
+        <v>3.964159515396264</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The People's Insurance Company (Group) of China Limited (SEHK:1339)</t>
+          <t>PICC Property and Casualty Company Limited (SEHK:2328)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -859,46 +859,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.08380000000000001</v>
+        <v>0.107</v>
       </c>
       <c r="E4">
-        <v>0.206</v>
+        <v>-0.0104</v>
       </c>
       <c r="G4">
-        <v>0.04342105438385517</v>
+        <v>0.05518500737286101</v>
       </c>
       <c r="H4">
-        <v>0.04342105438385517</v>
+        <v>0.05518500737286101</v>
       </c>
       <c r="I4">
-        <v>0.03973044972241673</v>
+        <v>0.05146085525187751</v>
       </c>
       <c r="J4">
-        <v>0.03829650643883596</v>
+        <v>0.04346882848927532</v>
       </c>
       <c r="K4">
-        <v>2671.3</v>
+        <v>2921.7</v>
       </c>
       <c r="L4">
-        <v>0.03557450163336676</v>
+        <v>0.05009601865505298</v>
       </c>
       <c r="M4">
-        <v>6.7</v>
+        <v>856.4</v>
       </c>
       <c r="N4">
-        <v>0.0003642175302789798</v>
+        <v>0.05085540888010023</v>
       </c>
       <c r="O4">
-        <v>0.002508142103095871</v>
+        <v>0.2931170209124825</v>
       </c>
       <c r="P4">
-        <v>6.7</v>
+        <v>856.4</v>
       </c>
       <c r="Q4">
-        <v>0.0003642175302789798</v>
+        <v>0.05085540888010023</v>
       </c>
       <c r="R4">
-        <v>0.002508142103095871</v>
+        <v>0.2931170209124825</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,73 +907,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>7598.4</v>
+        <v>2388.6</v>
       </c>
       <c r="V4">
-        <v>0.4130552958316119</v>
+        <v>0.1418416973972529</v>
       </c>
       <c r="W4">
-        <v>0.1216206372187469</v>
+        <v>0.1262138858169754</v>
       </c>
       <c r="X4">
-        <v>0.06923916722872434</v>
+        <v>0.05519309560603548</v>
       </c>
       <c r="Y4">
-        <v>0.05238146999002254</v>
+        <v>0.07102079021093992</v>
       </c>
       <c r="Z4">
-        <v>2.191960370926252</v>
+        <v>2.282947375013701</v>
       </c>
       <c r="AA4">
-        <v>0.08394442445885049</v>
+        <v>0.09923704789451185</v>
       </c>
       <c r="AB4">
-        <v>0.05046763283704801</v>
+        <v>0.04492615903434744</v>
       </c>
       <c r="AC4">
-        <v>0.03347679162180248</v>
+        <v>0.05431088886016441</v>
       </c>
       <c r="AD4">
-        <v>16561.3</v>
+        <v>6685.2</v>
       </c>
       <c r="AE4">
-        <v>361.6430560440528</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>16922.94305604405</v>
+        <v>6685.2</v>
       </c>
       <c r="AG4">
-        <v>9324.543056044053</v>
+        <v>4296.6</v>
       </c>
       <c r="AH4">
-        <v>0.4791517880335677</v>
+        <v>0.2841730747159417</v>
       </c>
       <c r="AI4">
-        <v>0.333835618009859</v>
+        <v>0.2166685572606913</v>
       </c>
       <c r="AJ4">
-        <v>0.33638149114858</v>
+        <v>0.2032786885245902</v>
       </c>
       <c r="AK4">
-        <v>0.216376612515039</v>
+        <v>0.1509384913176819</v>
       </c>
       <c r="AL4">
-        <v>905.4</v>
+        <v>142.7</v>
       </c>
       <c r="AM4">
-        <v>905.4</v>
+        <v>142.7</v>
       </c>
       <c r="AN4">
-        <v>4.8976193996747</v>
+        <v>2.042841864018334</v>
       </c>
       <c r="AO4">
-        <v>3.270929975701347</v>
+        <v>21.03223545900491</v>
       </c>
       <c r="AP4">
-        <v>2.757516799066702</v>
+        <v>1.312941176470588</v>
       </c>
       <c r="AQ4">
-        <v>3.270929975701347</v>
+        <v>21.03223545900491</v>
       </c>
     </row>
     <row r="5">
@@ -993,31 +993,31 @@
         </is>
       </c>
       <c r="G5">
-        <v>-0.1287139689578714</v>
+        <v>-0.02293812239339518</v>
       </c>
       <c r="H5">
-        <v>-0.1287139689578714</v>
+        <v>-0.02293812239339518</v>
       </c>
       <c r="I5">
-        <v>-0.06908261322995514</v>
+        <v>-0.01166056685675376</v>
       </c>
       <c r="J5">
-        <v>-0.06908261322995514</v>
+        <v>-0.01166056685675376</v>
       </c>
       <c r="K5">
-        <v>-144.7</v>
+        <v>-8.23</v>
       </c>
       <c r="L5">
-        <v>-0.08021064301552105</v>
+        <v>-0.003502425738360712</v>
       </c>
       <c r="M5">
-        <v>45.1</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.008505421970768506</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>-0.3116793365583967</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>-0</v>
@@ -1029,79 +1029,76 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>45.1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>334.1</v>
+        <v>524.9</v>
       </c>
       <c r="V5">
-        <v>0.06300801508722301</v>
+        <v>0.07648816029143898</v>
       </c>
       <c r="W5">
-        <v>-0.058110116059596</v>
+        <v>-0.003625550660792952</v>
       </c>
       <c r="X5">
-        <v>0.05126862008315893</v>
+        <v>0.04756371716741048</v>
       </c>
       <c r="Y5">
-        <v>-0.1093787361427549</v>
+        <v>-0.05118926782820343</v>
       </c>
       <c r="Z5">
-        <v>0.7242748422100311</v>
+        <v>0.9597609460862518</v>
       </c>
       <c r="AA5">
-        <v>-0.05003479879658236</v>
+        <v>-0.01119135667833999</v>
       </c>
       <c r="AB5">
-        <v>0.04915463104200554</v>
+        <v>0.04524270431834952</v>
       </c>
       <c r="AC5">
-        <v>-0.0991894298385879</v>
+        <v>-0.05643406099668951</v>
       </c>
       <c r="AD5">
-        <v>513</v>
+        <v>750.3</v>
       </c>
       <c r="AE5">
-        <v>74.12517133419527</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>587.1251713341953</v>
+        <v>750.3</v>
       </c>
       <c r="AG5">
-        <v>253.0251713341953</v>
+        <v>225.4</v>
       </c>
       <c r="AH5">
-        <v>0.09968803688761606</v>
+        <v>0.0985576923076923</v>
       </c>
       <c r="AI5">
-        <v>0.1959091861719104</v>
+        <v>0.2325574187149366</v>
       </c>
       <c r="AJ5">
-        <v>0.04554477993183671</v>
+        <v>0.03180067438874701</v>
       </c>
       <c r="AK5">
-        <v>0.09502132323896363</v>
+        <v>0.08343821722070037</v>
       </c>
       <c r="AL5">
-        <v>11.4</v>
+        <v>17.5</v>
       </c>
       <c r="AM5">
-        <v>11.4</v>
+        <v>17.5</v>
       </c>
       <c r="AN5">
-        <v>-4.909090909090909</v>
+        <v>-23.74367088607595</v>
       </c>
       <c r="AO5">
-        <v>-11.51754385964912</v>
+        <v>-1.565714285714286</v>
       </c>
       <c r="AP5">
-        <v>-2.421293505590386</v>
+        <v>-7.132911392405062</v>
       </c>
       <c r="AQ5">
-        <v>-11.51754385964912</v>
+        <v>-1.565714285714286</v>
       </c>
     </row>
   </sheetData>
